--- a/informatics/лабораторная 5/задание.xlsx
+++ b/informatics/лабораторная 5/задание.xlsx
@@ -257,26 +257,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -592,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A75" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
@@ -1382,7 +1372,7 @@
         <v>36</v>
       </c>
       <c r="U10">
-        <f t="shared" ref="U10:X10" si="11">MOD(QUOTIENT(2^16 - $C4,2^(U$1-1)),2)</f>
+        <f t="shared" ref="U10:W10" si="11">MOD(QUOTIENT(2^16 - $C4,2^(U$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="V10">
@@ -1646,7 +1636,7 @@
         <v>36</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:X13" si="23">MOD(QUOTIENT(2^16 - $C7,2^(U$1-1)),2)</f>
+        <f t="shared" ref="U13:W13" si="23">MOD(QUOTIENT(2^16 - $C7,2^(U$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="V13">
@@ -1762,76 +1752,76 @@
         <v>39</v>
       </c>
       <c r="F18">
-        <f>MOD(QUOTIENT($C18,2^(F$1-1)),2)</f>
+        <f t="shared" ref="F18:I19" si="28">MOD(QUOTIENT($C18,2^(F$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>MOD(QUOTIENT($C18,2^(G$1-1)),2)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>MOD(QUOTIENT($C18,2^(H$1-1)),2)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I18">
-        <f>MOD(QUOTIENT($C18,2^(I$1-1)),2)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>36</v>
       </c>
       <c r="K18">
-        <f>MOD(QUOTIENT($C18,2^(K$1-1)),2)</f>
+        <f t="shared" ref="K18:N19" si="29">MOD(QUOTIENT($C18,2^(K$1-1)),2)</f>
         <v>1</v>
       </c>
       <c r="L18">
-        <f>MOD(QUOTIENT($C18,2^(L$1-1)),2)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>MOD(QUOTIENT($C18,2^(M$1-1)),2)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>MOD(QUOTIENT($C18,2^(N$1-1)),2)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O18" t="s">
         <v>36</v>
       </c>
       <c r="P18">
-        <f>MOD(QUOTIENT($C18,2^(P$1-1)),2)</f>
+        <f t="shared" ref="P18:S19" si="30">MOD(QUOTIENT($C18,2^(P$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>MOD(QUOTIENT($C18,2^(Q$1-1)),2)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f>MOD(QUOTIENT($C18,2^(R$1-1)),2)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S18">
-        <f>MOD(QUOTIENT($C18,2^(S$1-1)),2)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="T18" t="s">
         <v>36</v>
       </c>
       <c r="U18">
-        <f>MOD(QUOTIENT($C18,2^(U$1-1)),2)</f>
+        <f t="shared" ref="U18:X19" si="31">MOD(QUOTIENT($C18,2^(U$1-1)),2)</f>
         <v>1</v>
       </c>
       <c r="V18">
-        <f>MOD(QUOTIENT($C18,2^(V$1-1)),2)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W18">
-        <f>MOD(QUOTIENT($C18,2^(W$1-1)),2)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X18">
-        <f>MOD(QUOTIENT($C18,2^(X$1-1)),2)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
@@ -1853,76 +1843,76 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <f>MOD(QUOTIENT($C19,2^(F$1-1)),2)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>MOD(QUOTIENT($C19,2^(G$1-1)),2)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>MOD(QUOTIENT($C19,2^(H$1-1)),2)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>MOD(QUOTIENT($C19,2^(I$1-1)),2)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>36</v>
       </c>
       <c r="K19">
-        <f>MOD(QUOTIENT($C19,2^(K$1-1)),2)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>MOD(QUOTIENT($C19,2^(L$1-1)),2)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="M19">
-        <f>MOD(QUOTIENT($C19,2^(M$1-1)),2)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>MOD(QUOTIENT($C19,2^(N$1-1)),2)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O19" t="s">
         <v>36</v>
       </c>
       <c r="P19">
-        <f>MOD(QUOTIENT($C19,2^(P$1-1)),2)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>MOD(QUOTIENT($C19,2^(Q$1-1)),2)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R19">
-        <f>MOD(QUOTIENT($C19,2^(R$1-1)),2)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S19">
-        <f>MOD(QUOTIENT($C19,2^(S$1-1)),2)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="T19" t="s">
         <v>36</v>
       </c>
       <c r="U19">
-        <f>MOD(QUOTIENT($C19,2^(U$1-1)),2)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="V19">
-        <f>MOD(QUOTIENT($C19,2^(V$1-1)),2)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>MOD(QUOTIENT($C19,2^(W$1-1)),2)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X19">
-        <f>MOD(QUOTIENT($C19,2^(X$1-1)),2)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -2000,11 +1990,11 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21">
-        <f t="shared" ref="F21:G21" si="28">MOD(F18+F19+G25,2)</f>
+        <f t="shared" ref="F21:G21" si="32">MOD(F18+F19+G25,2)</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="H21">
@@ -2019,11 +2009,11 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:L21" si="29">MOD(K18+K19+L25,2)</f>
+        <f t="shared" ref="K21:L21" si="33">MOD(K18+K19+L25,2)</f>
         <v>1</v>
       </c>
       <c r="L21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="M21">
@@ -2038,11 +2028,11 @@
         <v>36</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:Q21" si="30">MOD(P18+P19+Q25,2)</f>
+        <f t="shared" ref="P21:Q21" si="34">MOD(P18+P19+Q25,2)</f>
         <v>1</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R21">
@@ -2057,11 +2047,11 @@
         <v>36</v>
       </c>
       <c r="U21">
-        <f t="shared" ref="U21:V21" si="31">MOD(U18+U19+V25,2)</f>
+        <f t="shared" ref="U21:V21" si="35">MOD(U18+U19+V25,2)</f>
         <v>0</v>
       </c>
       <c r="V21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="W21">
@@ -2077,61 +2067,61 @@
       <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>F25</f>
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f>IF(MOD(SUM(P21:X21),2)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7">
+      <c r="H23" s="7"/>
+      <c r="I23" s="6">
         <f>U25</f>
         <v>1</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="7">
+      <c r="M23" s="7"/>
+      <c r="N23" s="6">
         <f>IF(C21=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6" t="s">
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="7">
+      <c r="R23" s="7"/>
+      <c r="S23" s="6">
         <f>IF(F21=0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6" t="s">
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="7">
+      <c r="W23" s="7"/>
+      <c r="X23" s="6">
         <f>IF(OR(AND(F18=0,F19=0,F21=1),AND(F18=1,F19=1,F21=0)),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="7"/>
       <c r="F25">
         <f>IF((F18+F19+G25)&gt;1,1,0)</f>
         <v>0</v>
@@ -2209,76 +2199,76 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:I29" si="32">MOD(QUOTIENT($C28,2^(F$1-1)),2)</f>
+        <f t="shared" ref="F28:I29" si="36">MOD(QUOTIENT($C28,2^(F$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>36</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:N29" si="33">MOD(QUOTIENT($C28,2^(K$1-1)),2)</f>
+        <f t="shared" ref="K28:N29" si="37">MOD(QUOTIENT($C28,2^(K$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="M28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="O28" t="s">
         <v>36</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28:S29" si="34">MOD(QUOTIENT($C28,2^(P$1-1)),2)</f>
+        <f t="shared" ref="P28:S29" si="38">MOD(QUOTIENT($C28,2^(P$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="R28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="S28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="T28" t="s">
         <v>36</v>
       </c>
       <c r="U28">
-        <f t="shared" ref="U28:X29" si="35">MOD(QUOTIENT($C28,2^(U$1-1)),2)</f>
+        <f t="shared" ref="U28:X29" si="39">MOD(QUOTIENT($C28,2^(U$1-1)),2)</f>
         <v>1</v>
       </c>
       <c r="V28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="X28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -2300,76 +2290,76 @@
         <v>52</v>
       </c>
       <c r="F29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>36</v>
       </c>
       <c r="K29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="M29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="O29" t="s">
         <v>36</v>
       </c>
       <c r="P29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="S29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="T29" t="s">
         <v>36</v>
       </c>
       <c r="U29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="W29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -2446,11 +2436,11 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31">
-        <f t="shared" ref="F31:G31" si="36">MOD(F28+F29+G35,2)</f>
+        <f t="shared" ref="F31:G31" si="40">MOD(F28+F29+G35,2)</f>
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="H31">
@@ -2465,11 +2455,11 @@
         <v>36</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:L31" si="37">MOD(K28+K29+L35,2)</f>
+        <f t="shared" ref="K31:L31" si="41">MOD(K28+K29+L35,2)</f>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M31">
@@ -2484,11 +2474,11 @@
         <v>36</v>
       </c>
       <c r="P31">
-        <f t="shared" ref="P31:Q31" si="38">MOD(P28+P29+Q35,2)</f>
+        <f t="shared" ref="P31:Q31" si="42">MOD(P28+P29+Q35,2)</f>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R31">
@@ -2503,11 +2493,11 @@
         <v>36</v>
       </c>
       <c r="U31">
-        <f t="shared" ref="U31:V31" si="39">MOD(U28+U29+V35,2)</f>
+        <f t="shared" ref="U31:V31" si="43">MOD(U28+U29+V35,2)</f>
         <v>1</v>
       </c>
       <c r="V31">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="W31">
@@ -2523,61 +2513,61 @@
       <c r="B33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f>F35</f>
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f>IF(MOD(SUM(P31:X31),2)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="7">
+      <c r="H33" s="7"/>
+      <c r="I33" s="6">
         <f>U35</f>
         <v>0</v>
       </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6" t="s">
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="7">
+      <c r="M33" s="7"/>
+      <c r="N33" s="6">
         <f>IF(C31=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6" t="s">
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="7">
+      <c r="R33" s="7"/>
+      <c r="S33" s="6">
         <f>IF(F31=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6" t="s">
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W33" s="6"/>
-      <c r="X33" s="7">
+      <c r="W33" s="7"/>
+      <c r="X33" s="6">
         <f>IF(OR(AND(F28=0,F29=0,F31=1),AND(F28=1,F29=1,F31=0)),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="7"/>
       <c r="F35">
         <f>IF((F28+F29+G35)&gt;1,1,0)</f>
         <v>0</v>
@@ -2659,72 +2649,72 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="F38:I38" si="40">MOD(QUOTIENT($C38,2^(G$1-1)),2)</f>
+        <f t="shared" ref="G38:I38" si="44">MOD(QUOTIENT($C38,2^(G$1-1)),2)</f>
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>36</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:N38" si="41">MOD(QUOTIENT($C38,2^(K$1-1)),2)</f>
+        <f t="shared" ref="K38:N38" si="45">MOD(QUOTIENT($C38,2^(K$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>36</v>
       </c>
       <c r="P38">
-        <f t="shared" ref="P38:S38" si="42">MOD(QUOTIENT($C38,2^(P$1-1)),2)</f>
+        <f t="shared" ref="P38:S38" si="46">MOD(QUOTIENT($C38,2^(P$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="R38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="S38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="T38" t="s">
         <v>36</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38:X38" si="43">MOD(QUOTIENT($C38,2^(U$1-1)),2)</f>
+        <f t="shared" ref="U38:X38" si="47">MOD(QUOTIENT($C38,2^(U$1-1)),2)</f>
         <v>1</v>
       </c>
       <c r="V38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="W38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="X38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -2750,75 +2740,75 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:X39" si="44">MOD(QUOTIENT(2^16 - $C3,2^(G$1-1)),2)</f>
+        <f t="shared" ref="G39:X39" si="48">MOD(QUOTIENT(2^16 - $C3,2^(G$1-1)),2)</f>
         <v>1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="J39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="M39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="O39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="R39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="U39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="V39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="X39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
@@ -2895,11 +2885,11 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41">
-        <f t="shared" ref="F41:G41" si="45">MOD(F38+F39+G45,2)</f>
+        <f t="shared" ref="F41:G41" si="49">MOD(F38+F39+G45,2)</f>
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H41">
@@ -2914,11 +2904,11 @@
         <v>36</v>
       </c>
       <c r="K41">
-        <f t="shared" ref="K41:L41" si="46">MOD(K38+K39+L45,2)</f>
+        <f t="shared" ref="K41:L41" si="50">MOD(K38+K39+L45,2)</f>
         <v>1</v>
       </c>
       <c r="L41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M41">
@@ -2933,11 +2923,11 @@
         <v>36</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41:Q41" si="47">MOD(P38+P39+Q45,2)</f>
+        <f t="shared" ref="P41:Q41" si="51">MOD(P38+P39+Q45,2)</f>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R41">
@@ -2952,11 +2942,11 @@
         <v>36</v>
       </c>
       <c r="U41">
-        <f t="shared" ref="U41:V41" si="48">MOD(U38+U39+V45,2)</f>
+        <f t="shared" ref="U41:V41" si="52">MOD(U38+U39+V45,2)</f>
         <v>1</v>
       </c>
       <c r="V41">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="W41">
@@ -2972,61 +2962,61 @@
       <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <f>F45</f>
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <f>IF(MOD(SUM(P41:X41),2)=0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="7">
+      <c r="H43" s="7"/>
+      <c r="I43" s="6">
         <f>U45</f>
         <v>0</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6" t="s">
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="7">
+      <c r="M43" s="7"/>
+      <c r="N43" s="6">
         <f>IF(C41=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6" t="s">
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R43" s="6"/>
-      <c r="S43" s="7">
+      <c r="R43" s="7"/>
+      <c r="S43" s="6">
         <f>IF(F41=0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6" t="s">
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W43" s="6"/>
-      <c r="X43" s="7">
+      <c r="W43" s="7"/>
+      <c r="X43" s="6">
         <f>IF(OR(AND(F38=0,F39=0,F41=1),AND(F38=1,F39=1,F41=0)),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="7"/>
       <c r="F45">
         <f>IF((F38+F39+G45)&gt;1,1,0)</f>
         <v>1</v>
@@ -3108,75 +3098,75 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:X51" si="49">MOD(QUOTIENT(2^16 - $C3,2^(G$1-1)),2)</f>
+        <f t="shared" ref="G51:X51" si="53">MOD(QUOTIENT(2^16 - $C3,2^(G$1-1)),2)</f>
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="J51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="M51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="O51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="R51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="W51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="X51">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
     </row>
@@ -3202,75 +3192,75 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <f t="shared" ref="G52:X52" si="50">MOD(QUOTIENT(2^16 - $C4,2^(G$1-1)),2)</f>
+        <f t="shared" ref="G52:X52" si="54">MOD(QUOTIENT(2^16 - $C4,2^(G$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="L52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="T52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="U52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="V52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="W52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -3347,11 +3337,11 @@
       </c>
       <c r="E54" s="4"/>
       <c r="F54">
-        <f t="shared" ref="F54:G54" si="51">MOD(F51+F52+G58,2)</f>
+        <f t="shared" ref="F54:G54" si="55">MOD(F51+F52+G58,2)</f>
         <v>1</v>
       </c>
       <c r="G54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H54">
@@ -3366,11 +3356,11 @@
         <v>36</v>
       </c>
       <c r="K54">
-        <f t="shared" ref="K54:L54" si="52">MOD(K51+K52+L58,2)</f>
+        <f t="shared" ref="K54:L54" si="56">MOD(K51+K52+L58,2)</f>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M54">
@@ -3385,11 +3375,11 @@
         <v>36</v>
       </c>
       <c r="P54">
-        <f t="shared" ref="P54:Q54" si="53">MOD(P51+P52+Q58,2)</f>
+        <f t="shared" ref="P54:Q54" si="57">MOD(P51+P52+Q58,2)</f>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="R54">
@@ -3404,11 +3394,11 @@
         <v>36</v>
       </c>
       <c r="U54">
-        <f t="shared" ref="U54:V54" si="54">MOD(U51+U52+V58,2)</f>
+        <f t="shared" ref="U54:V54" si="58">MOD(U51+U52+V58,2)</f>
         <v>1</v>
       </c>
       <c r="V54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="W54">
@@ -3424,61 +3414,61 @@
       <c r="B56" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <f>F58</f>
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <f>IF(MOD(SUM(P54:X54),2)=0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="7">
+      <c r="H56" s="7"/>
+      <c r="I56" s="6">
         <f>U58</f>
         <v>0</v>
       </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6" t="s">
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M56" s="6"/>
-      <c r="N56" s="7">
+      <c r="M56" s="7"/>
+      <c r="N56" s="6">
         <f>IF(C54=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6" t="s">
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="7">
+      <c r="R56" s="7"/>
+      <c r="S56" s="6">
         <f>IF(F54=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6" t="s">
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W56" s="6"/>
-      <c r="X56" s="7">
+      <c r="W56" s="7"/>
+      <c r="X56" s="6">
         <f>IF(OR(AND(F51=0,F52=0,F54=1),AND(F51=1,F52=1,F54=0)),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="6"/>
+      <c r="E58" s="7"/>
       <c r="F58">
         <f>IF((F51+F52+G58)&gt;1,1,0)</f>
         <v>1</v>
@@ -3560,75 +3550,75 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:X61" si="55">MOD(QUOTIENT(2^16 - $C4,2^(G$1-1)),2)</f>
+        <f t="shared" ref="G61:X61" si="59">MOD(QUOTIENT(2^16 - $C4,2^(G$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="L61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="S61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="T61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="U61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="V61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="W61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="X61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -3654,75 +3644,75 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:X62" si="56">MOD(QUOTIENT(2^16 - $C5,2^(G$1-1)),2)</f>
+        <f t="shared" ref="G62:X62" si="60">MOD(QUOTIENT(2^16 - $C5,2^(G$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="R62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="U62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="V62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="X62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
     </row>
@@ -3799,11 +3789,11 @@
       </c>
       <c r="E64" s="4"/>
       <c r="F64">
-        <f t="shared" ref="F64:G64" si="57">MOD(F61+F62+G68,2)</f>
+        <f t="shared" ref="F64:G64" si="61">MOD(F61+F62+G68,2)</f>
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H64">
@@ -3818,11 +3808,11 @@
         <v>36</v>
       </c>
       <c r="K64">
-        <f t="shared" ref="K64:L64" si="58">MOD(K61+K62+L68,2)</f>
+        <f t="shared" ref="K64:L64" si="62">MOD(K61+K62+L68,2)</f>
         <v>1</v>
       </c>
       <c r="L64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="M64">
@@ -3837,11 +3827,11 @@
         <v>36</v>
       </c>
       <c r="P64">
-        <f t="shared" ref="P64:Q64" si="59">MOD(P61+P62+Q68,2)</f>
+        <f t="shared" ref="P64:Q64" si="63">MOD(P61+P62+Q68,2)</f>
         <v>1</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="R64">
@@ -3856,11 +3846,11 @@
         <v>36</v>
       </c>
       <c r="U64">
-        <f t="shared" ref="U64:V64" si="60">MOD(U61+U62+V68,2)</f>
+        <f t="shared" ref="U64:V64" si="64">MOD(U61+U62+V68,2)</f>
         <v>0</v>
       </c>
       <c r="V64">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="W64">
@@ -3876,61 +3866,61 @@
       <c r="B66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <f>F68</f>
         <v>1</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <f>IF(MOD(SUM(P64:X64),2)=0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="7">
+      <c r="H66" s="7"/>
+      <c r="I66" s="6">
         <f>U68</f>
         <v>1</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6" t="s">
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M66" s="6"/>
-      <c r="N66" s="7">
+      <c r="M66" s="7"/>
+      <c r="N66" s="6">
         <f>IF(C64=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6" t="s">
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R66" s="6"/>
-      <c r="S66" s="7">
+      <c r="R66" s="7"/>
+      <c r="S66" s="6">
         <f>IF(F64=0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6" t="s">
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W66" s="6"/>
-      <c r="X66" s="7">
+      <c r="W66" s="7"/>
+      <c r="X66" s="6">
         <f>IF(OR(AND(F61=0,F62=0,F64=1),AND(F61=1,F62=1,F64=0)),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="7"/>
       <c r="F68">
         <f>IF((F61+F62+G68)&gt;1,1,0)</f>
         <v>1</v>
@@ -4008,75 +3998,75 @@
         <v>39</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:W71" si="61">MOD(QUOTIENT($C3,2^(F$1-1)),2)</f>
+        <f t="shared" ref="F71:W71" si="65">MOD(QUOTIENT($C3,2^(F$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="I71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="L71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="T71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="V71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="X71">
@@ -4102,75 +4092,75 @@
         <v>57</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:W72" si="62">MOD(QUOTIENT(2^16 - $C4,2^(F$1-1)),2)</f>
+        <f t="shared" ref="F72:W72" si="66">MOD(QUOTIENT(2^16 - $C4,2^(F$1-1)),2)</f>
         <v>1</v>
       </c>
       <c r="G72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="L72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="S72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="T72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="U72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="V72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="W72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="X72">
@@ -4251,11 +4241,11 @@
       </c>
       <c r="E74" s="4"/>
       <c r="F74">
-        <f t="shared" ref="F74:G74" si="63">MOD(F71+F72+G78,2)</f>
+        <f t="shared" ref="F74:G74" si="67">MOD(F71+F72+G78,2)</f>
         <v>1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="H74">
@@ -4270,11 +4260,11 @@
         <v>36</v>
       </c>
       <c r="K74">
-        <f t="shared" ref="K74:L74" si="64">MOD(K71+K72+L78,2)</f>
+        <f t="shared" ref="K74:L74" si="68">MOD(K71+K72+L78,2)</f>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="M74">
@@ -4289,11 +4279,11 @@
         <v>36</v>
       </c>
       <c r="P74">
-        <f t="shared" ref="P74:Q74" si="65">MOD(P71+P72+Q78,2)</f>
+        <f t="shared" ref="P74:Q74" si="69">MOD(P71+P72+Q78,2)</f>
         <v>1</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="R74">
@@ -4308,11 +4298,11 @@
         <v>36</v>
       </c>
       <c r="U74">
-        <f t="shared" ref="U74:V74" si="66">MOD(U71+U72+V78,2)</f>
+        <f t="shared" ref="U74:V74" si="70">MOD(U71+U72+V78,2)</f>
         <v>0</v>
       </c>
       <c r="V74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="W74">
@@ -4328,61 +4318,61 @@
       <c r="B76" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <f>F78</f>
         <v>0</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <f>IF(MOD(SUM(P74:X74),2)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="7">
+      <c r="H76" s="7"/>
+      <c r="I76" s="6">
         <f>U78</f>
         <v>1</v>
       </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6" t="s">
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M76" s="6"/>
-      <c r="N76" s="7">
+      <c r="M76" s="7"/>
+      <c r="N76" s="6">
         <f>IF(C74=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6" t="s">
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R76" s="6"/>
-      <c r="S76" s="7">
+      <c r="R76" s="7"/>
+      <c r="S76" s="6">
         <f>IF(F74=0,0,1)</f>
         <v>1</v>
       </c>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6" t="s">
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W76" s="6"/>
-      <c r="X76" s="7">
+      <c r="W76" s="7"/>
+      <c r="X76" s="6">
         <f>IF(OR(AND(F71=0,F72=0,F74=1),AND(F71=1,F72=1,F74=0)),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E78" s="6"/>
+      <c r="E78" s="7"/>
       <c r="F78">
         <f>IF((F71+F72+G78)&gt;1,1,0)</f>
         <v>0</v>
@@ -4460,75 +4450,75 @@
         <v>61</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81:W81" si="67">MOD(QUOTIENT(2^16 - $C7,2^(F$1-1)),2)</f>
+        <f t="shared" ref="F81:W81" si="71">MOD(QUOTIENT(2^16 - $C7,2^(F$1-1)),2)</f>
         <v>1</v>
       </c>
       <c r="G81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="I81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="M81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="N81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="R81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="S81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="T81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="U81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="V81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="W81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="X81">
@@ -4554,75 +4544,75 @@
         <v>52</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82:W82" si="68">MOD(QUOTIENT($C5,2^(F$1-1)),2)</f>
+        <f t="shared" ref="F82:W82" si="72">MOD(QUOTIENT($C5,2^(F$1-1)),2)</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="H82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="I82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="J82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="L82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="M82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="N82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="O82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="S82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="T82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="U82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="V82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="W82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="X82">
@@ -4703,11 +4693,11 @@
       </c>
       <c r="E84" s="4"/>
       <c r="F84">
-        <f t="shared" ref="F84:G84" si="69">MOD(F81+F82+G88,2)</f>
+        <f t="shared" ref="F84:G84" si="73">MOD(F81+F82+G88,2)</f>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="H84">
@@ -4722,11 +4712,11 @@
         <v>36</v>
       </c>
       <c r="K84">
-        <f t="shared" ref="K84:L84" si="70">MOD(K81+K82+L88,2)</f>
+        <f t="shared" ref="K84:L84" si="74">MOD(K81+K82+L88,2)</f>
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M84">
@@ -4741,11 +4731,11 @@
         <v>36</v>
       </c>
       <c r="P84">
-        <f t="shared" ref="P84:Q84" si="71">MOD(P81+P82+Q88,2)</f>
+        <f t="shared" ref="P84:Q84" si="75">MOD(P81+P82+Q88,2)</f>
         <v>0</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="R84">
@@ -4760,11 +4750,11 @@
         <v>36</v>
       </c>
       <c r="U84">
-        <f t="shared" ref="U84:V84" si="72">MOD(U81+U82+V88,2)</f>
+        <f t="shared" ref="U84:V84" si="76">MOD(U81+U82+V88,2)</f>
         <v>0</v>
       </c>
       <c r="V84">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="W84">
@@ -4780,61 +4770,61 @@
       <c r="B86" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <f>F88</f>
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="6">
         <f>IF(MOD(SUM(P84:X84),2)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="7">
+      <c r="H86" s="7"/>
+      <c r="I86" s="6">
         <f>U88</f>
         <v>0</v>
       </c>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6" t="s">
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M86" s="6"/>
-      <c r="N86" s="7">
+      <c r="M86" s="7"/>
+      <c r="N86" s="6">
         <f>IF(C84=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6" t="s">
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R86" s="6"/>
-      <c r="S86" s="7">
+      <c r="R86" s="7"/>
+      <c r="S86" s="6">
         <f>IF(F84=0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6" t="s">
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W86" s="6"/>
-      <c r="X86" s="7">
+      <c r="W86" s="7"/>
+      <c r="X86" s="6">
         <f>IF(OR(AND(F81=0,F82=0,F84=1),AND(F81=1,F82=1,F84=0)),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="6"/>
+      <c r="E88" s="7"/>
       <c r="F88">
         <f>IF((F81+F82+G88)&gt;1,1,0)</f>
         <v>1</v>
@@ -4902,23 +4892,30 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="T43:U43"/>
     <mergeCell ref="T56:U56"/>
     <mergeCell ref="V56:W56"/>
     <mergeCell ref="D58:E58"/>
@@ -4934,36 +4931,29 @@
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="O56:P56"/>
     <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="Q76:R76"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:X6">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
